--- a/测试.xlsx
+++ b/测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="链表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>读占比</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,19 +28,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遍历链表</t>
+    <t>创建长度为1000的链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release -O2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release -O2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历长度为1000的链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共操作次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务平均时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯指针平均时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能差距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,227 +426,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="G2">
+        <v>8232</v>
+      </c>
+      <c r="H2">
+        <v>559</v>
+      </c>
+      <c r="I2">
+        <f>G2/H2</f>
+        <v>14.726296958855098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3">
+        <v>4605</v>
+      </c>
+      <c r="H3">
+        <v>429</v>
+      </c>
+      <c r="I3">
+        <f>G3/H3</f>
+        <v>10.734265734265735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5">
+        <v>2661</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <f>G5/H5</f>
+        <v>166.3125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+      <c r="G6">
+        <v>987</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <f>G6/H6</f>
+        <v>109.66666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="G9">
+        <v>11789</v>
+      </c>
+      <c r="H9">
+        <v>376</v>
+      </c>
+      <c r="I9">
+        <f>G9/H9</f>
+        <v>31.353723404255319</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>3822</v>
-      </c>
-      <c r="E2">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3">
-        <v>3734</v>
-      </c>
-      <c r="E3">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D4">
-        <v>3959</v>
-      </c>
-      <c r="E4">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D5">
-        <v>3773</v>
-      </c>
-      <c r="E5">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6">
-        <v>3792</v>
-      </c>
-      <c r="E6">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7">
-        <v>3740</v>
-      </c>
-      <c r="E7">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>4180</v>
-      </c>
-      <c r="E8">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <v>4015</v>
-      </c>
-      <c r="E9">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D10">
-        <v>3666</v>
-      </c>
-      <c r="E10">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11">
-        <f>AVERAGE(D2:D10)</f>
-        <v>3853.4444444444443</v>
-      </c>
-      <c r="E11">
-        <f>AVERAGE(E2:E10)</f>
-        <v>194.11111111111111</v>
-      </c>
-      <c r="F11">
-        <f>D11/E11</f>
-        <v>19.851745850028621</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>100</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>1164</v>
-      </c>
-      <c r="E13">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14">
-        <v>1202</v>
-      </c>
-      <c r="E14">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15">
-        <v>1082</v>
-      </c>
-      <c r="E15">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <v>1093</v>
-      </c>
-      <c r="E16">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17">
-        <v>1102</v>
-      </c>
-      <c r="E17">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18">
-        <v>1086</v>
-      </c>
-      <c r="E18">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19">
-        <v>1158</v>
-      </c>
-      <c r="E19">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D20">
-        <v>1323</v>
-      </c>
-      <c r="E20">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21">
-        <v>1103</v>
-      </c>
-      <c r="E21">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D22">
-        <v>1116</v>
-      </c>
-      <c r="E22">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D23">
-        <f>AVERAGE(D13:D22)</f>
-        <v>1142.9000000000001</v>
-      </c>
-      <c r="E23">
-        <f>AVERAGE(E13:E22)</f>
-        <v>38.5</v>
-      </c>
-      <c r="F23">
-        <f>D23/E23</f>
-        <v>29.685714285714287</v>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+      <c r="G10">
+        <v>5460</v>
+      </c>
+      <c r="H10">
+        <v>370</v>
+      </c>
+      <c r="I10">
+        <f>G10/H10</f>
+        <v>14.756756756756756</v>
       </c>
     </row>
   </sheetData>

--- a/测试.xlsx
+++ b/测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="链表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>读占比</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,14 @@
   </si>
   <si>
     <t>线程数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release -O3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历链表/每个线程为链表添加1000个节点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -84,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +102,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -120,8 +136,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -426,16 +443,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="5" max="5" width="45.25" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
@@ -650,6 +667,126 @@
         <v>14.756756756756756</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+      <c r="G12">
+        <v>15479</v>
+      </c>
+      <c r="H12">
+        <v>1254</v>
+      </c>
+      <c r="I12">
+        <f>G12/H12</f>
+        <v>12.343700159489634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+      <c r="G13">
+        <v>84839</v>
+      </c>
+      <c r="H13">
+        <v>8238</v>
+      </c>
+      <c r="I13">
+        <f>G13/H13</f>
+        <v>10.298494780286477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+      <c r="G14">
+        <v>52013</v>
+      </c>
+      <c r="H14">
+        <v>5259</v>
+      </c>
+      <c r="I14">
+        <f>G14/H14</f>
+        <v>9.8902833238258232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>16749</v>
+      </c>
+      <c r="H15">
+        <v>2780</v>
+      </c>
+      <c r="I15">
+        <f>G15/H15</f>
+        <v>6.0248201438848925</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/测试.xlsx
+++ b/测试.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>读占比</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,39 @@
   </si>
   <si>
     <t>遍历链表/每个线程为链表添加1000个节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读写比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25:75</t>
+  </si>
+  <si>
+    <t>50:50</t>
+  </si>
+  <si>
+    <t>75:25</t>
+  </si>
+  <si>
+    <t>读写比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务平均时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加锁平均时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能差距</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,9 +169,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -154,6 +190,1351 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>链表!$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>事务平均时间</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>链表!$C$18:$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0:100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25:75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50:50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75:25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>链表!$D$18:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>142754</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16749</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>链表!$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>加锁平均时间</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>链表!$C$18:$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0:100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25:75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50:50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75:25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>链表!$E$18:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12548</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5259</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2780</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1651980416"/>
+        <c:axId val="1651979872"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>链表!$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>性能差距</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>链表!$C$18:$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0:100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25:75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50:50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75:25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>链表!$F$18:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.376633726490278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.298494780286477</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8902833238258232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0248201438848925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1644769568"/>
+        <c:axId val="1889268112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1651980416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>读写比例</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1651979872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1651979872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVertRtl" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>操作完成平均时间（微秒）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVertRtl" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1651980416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1889268112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVertRtl" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>性能差距（倍数）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVertRtl" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1644769568"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1644769568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1889268112"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3343275</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,22 +1824,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="45.25" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="45.25" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -472,22 +1855,25 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -500,24 +1886,24 @@
       <c r="D2">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>8232</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>559</v>
       </c>
-      <c r="I2">
-        <f>G2/H2</f>
+      <c r="J2">
+        <f>H2/I2</f>
         <v>14.726296958855098</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -530,24 +1916,24 @@
       <c r="D3">
         <v>100</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>4605</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>429</v>
       </c>
-      <c r="I3">
-        <f>G3/H3</f>
+      <c r="J3">
+        <f>H3/I3</f>
         <v>10.734265734265735</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -560,24 +1946,24 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2661</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>16</v>
       </c>
-      <c r="I5">
-        <f>G5/H5</f>
+      <c r="J5">
+        <f>H5/I5</f>
         <v>166.3125</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -590,24 +1976,24 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>987</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>9</v>
       </c>
-      <c r="I6">
-        <f>G6/H6</f>
+      <c r="J6">
+        <f>H6/I6</f>
         <v>109.66666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -620,24 +2006,24 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>11789</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>376</v>
       </c>
-      <c r="I9">
-        <f>G9/H9</f>
+      <c r="J9">
+        <f>H9/I9</f>
         <v>31.353723404255319</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -650,24 +2036,24 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>9</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>5460</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>370</v>
       </c>
-      <c r="I10">
-        <f>G10/H10</f>
+      <c r="J10">
+        <f>H10/I10</f>
         <v>14.756756756756756</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -680,24 +2066,27 @@
       <c r="D12">
         <v>100</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1000</v>
       </c>
-      <c r="G12">
-        <v>15479</v>
-      </c>
       <c r="H12">
-        <v>1254</v>
+        <v>142754</v>
       </c>
       <c r="I12">
-        <f>G12/H12</f>
-        <v>12.343700159489634</v>
+        <v>12548</v>
+      </c>
+      <c r="J12">
+        <f>H12/I12</f>
+        <v>11.376633726490278</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -710,24 +2099,27 @@
       <c r="D13">
         <v>75</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
         <v>17</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>84839</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>8238</v>
       </c>
-      <c r="I13">
-        <f>G13/H13</f>
+      <c r="J13">
+        <f>H13/I13</f>
         <v>10.298494780286477</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -740,24 +2132,27 @@
       <c r="D14">
         <v>50</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
         <v>17</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>52013</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>5259</v>
       </c>
-      <c r="I14">
-        <f>G14/H14</f>
+      <c r="J14">
+        <f>H14/I14</f>
         <v>9.8902833238258232</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -770,20 +2165,97 @@
       <c r="D15">
         <v>25</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
         <v>17</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1000</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>16749</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2780</v>
       </c>
-      <c r="I15">
-        <f>G15/H15</f>
+      <c r="J15">
+        <f>H15/I15</f>
+        <v>6.0248201438848925</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>142754</v>
+      </c>
+      <c r="E18">
+        <v>12548</v>
+      </c>
+      <c r="F18">
+        <f>D18/E18</f>
+        <v>11.376633726490278</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>84839</v>
+      </c>
+      <c r="E19">
+        <v>8238</v>
+      </c>
+      <c r="F19">
+        <f>D19/E19</f>
+        <v>10.298494780286477</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>52013</v>
+      </c>
+      <c r="E20">
+        <v>5259</v>
+      </c>
+      <c r="F20">
+        <f>D20/E20</f>
+        <v>9.8902833238258232</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1">
+        <v>16749</v>
+      </c>
+      <c r="E21">
+        <v>2780</v>
+      </c>
+      <c r="F21">
+        <f>D21/E21</f>
         <v>6.0248201438848925</v>
       </c>
     </row>
@@ -791,5 +2263,68 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF0070C0"/>
+          <x14:colorNegative rgb="FF000000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF000000"/>
+          <x14:colorFirst rgb="FF000000"/>
+          <x14:colorLast rgb="FF000000"/>
+          <x14:colorHigh rgb="FF000000"/>
+          <x14:colorLow rgb="FF000000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>链表!A18:A18</xm:f>
+              <xm:sqref>D18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>链表!A19:A19</xm:f>
+              <xm:sqref>D19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>链表!A20:A20</xm:f>
+              <xm:sqref>D20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>链表!A21:A21</xm:f>
+              <xm:sqref>D21</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF0070C0"/>
+          <x14:colorNegative rgb="FF000000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF000000"/>
+          <x14:colorFirst rgb="FF000000"/>
+          <x14:colorLast rgb="FF000000"/>
+          <x14:colorHigh rgb="FF000000"/>
+          <x14:colorLow rgb="FF000000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>链表!E12:E12</xm:f>
+              <xm:sqref>H12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>链表!E13:E13</xm:f>
+              <xm:sqref>H13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>链表!E14:E14</xm:f>
+              <xm:sqref>H14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>链表!E15:E15</xm:f>
+              <xm:sqref>H15</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>